--- a/funds/stocks/首旅酒店&财务报表同型分析.xlsx
+++ b/funds/stocks/首旅酒店&财务报表同型分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20603" windowHeight="8495" activeTab="3"/>
+    <workbookView windowWidth="20603" windowHeight="8495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="资产&amp;负债结构分析" sheetId="2" r:id="rId1"/>
@@ -641,14 +641,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
-    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="179" formatCode="\+0;\-0;0;@"/>
+    <numFmt numFmtId="178" formatCode="\+0;\-0;0;@"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -723,17 +723,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -748,7 +747,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -756,43 +762,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,17 +776,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -829,10 +790,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -844,19 +814,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -905,7 +905,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,19 +971,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,19 +989,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,37 +1025,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,25 +1049,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,25 +1067,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,13 +1079,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,17 +1182,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1202,45 +1198,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1263,19 +1220,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1287,10 +1287,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1299,7 +1299,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1308,128 +1308,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1475,9 +1475,6 @@
     <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1544,7 +1541,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1562,7 +1559,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1945,386 +1942,386 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22">
         <v>2019</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="22">
         <v>2018</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="22">
         <v>2017</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23">
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22">
         <v>2019</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="22">
         <v>2018</v>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="22">
         <v>2017</v>
       </c>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="57"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="56"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="22">
         <v>17.77</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>10.32</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="22">
         <v>14.5</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="13">
         <v>2.34</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="13">
         <v>1</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="13">
         <v>8.4</v>
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="24"/>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="23">
-        <v>0</v>
-      </c>
-      <c r="E5" s="23">
-        <v>0</v>
-      </c>
-      <c r="F5" s="23">
+      <c r="D5" s="22">
+        <v>0</v>
+      </c>
+      <c r="E5" s="22">
+        <v>0</v>
+      </c>
+      <c r="F5" s="22">
         <v>0.000276</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="23" t="s">
+      <c r="H5" s="23"/>
+      <c r="I5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="23">
-        <v>0</v>
-      </c>
-      <c r="K5" s="23">
-        <v>0</v>
-      </c>
-      <c r="L5" s="23">
+      <c r="J5" s="22">
+        <v>0</v>
+      </c>
+      <c r="K5" s="22">
+        <v>0</v>
+      </c>
+      <c r="L5" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="24"/>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <v>1.89</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>2.32</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="22">
         <v>2</v>
       </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23" t="s">
+      <c r="H6" s="23"/>
+      <c r="I6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="22">
         <v>1.29</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="22">
         <v>1.25</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="22">
         <v>1.34</v>
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="24"/>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="22">
         <v>1.75</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>1.79</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="22">
         <v>1.79</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23" t="s">
+      <c r="H7" s="23"/>
+      <c r="I7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="23">
-        <v>0</v>
-      </c>
-      <c r="K7" s="23">
-        <v>0</v>
-      </c>
-      <c r="L7" s="28">
+      <c r="J7" s="22">
+        <v>0</v>
+      </c>
+      <c r="K7" s="22">
+        <v>0</v>
+      </c>
+      <c r="L7" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="24"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="22">
         <v>0.482149</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <v>0.505349</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="22">
         <v>0.455125</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23" t="s">
+      <c r="H8" s="23"/>
+      <c r="I8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="22">
         <v>3.08</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="22">
         <v>3.66</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="22">
         <v>3.61</v>
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="24"/>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <v>25.42</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <v>23.31</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="27">
         <v>19.67</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23" t="s">
+      <c r="H9" s="23"/>
+      <c r="I9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="22">
         <v>1.19</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="22">
         <v>1.19</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="22">
         <v>1.08</v>
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="24"/>
-      <c r="C10" s="25" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="57">
         <f>D4/D9</f>
         <v>0.699055861526357</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="57">
         <f>E4/E9</f>
         <v>0.442728442728443</v>
       </c>
-      <c r="F10" s="58">
+      <c r="F10" s="57">
         <f>F4/F9</f>
         <v>0.737163192679207</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23" t="s">
+      <c r="H10" s="23"/>
+      <c r="I10" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="23">
-        <v>0</v>
-      </c>
-      <c r="K10" s="23">
+      <c r="J10" s="22">
+        <v>0</v>
+      </c>
+      <c r="K10" s="22">
         <v>18.1</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="22">
         <v>14.55</v>
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="24"/>
-      <c r="C11" s="25" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="57">
         <f>D5/D9</f>
         <v>0</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="57">
         <f>E5/E9</f>
         <v>0</v>
       </c>
-      <c r="F11" s="58">
+      <c r="F11" s="57">
         <f>F5/F9</f>
         <v>1.40315200813421e-5</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23" t="s">
+      <c r="H11" s="23"/>
+      <c r="I11" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="22">
         <v>38.69</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="22">
         <v>35.31</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="27">
         <v>38.18</v>
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="24"/>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="57">
         <f>D6/D9</f>
         <v>0.0743509047993706</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="57">
         <f>E6/E9</f>
         <v>0.0995280995280995</v>
       </c>
-      <c r="F12" s="58">
+      <c r="F12" s="57">
         <f>F6/F9</f>
         <v>0.101677681748856</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25" t="s">
+      <c r="H12" s="23"/>
+      <c r="I12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="58">
+      <c r="J12" s="57">
         <f t="shared" ref="J12:L12" si="0">J4/J11</f>
         <v>0.0604807443783923</v>
       </c>
-      <c r="K12" s="58">
+      <c r="K12" s="57">
         <f t="shared" si="0"/>
         <v>0.0283205890682526</v>
       </c>
-      <c r="L12" s="58">
+      <c r="L12" s="57">
         <f t="shared" si="0"/>
         <v>0.220010476689366</v>
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="24"/>
-      <c r="C13" s="25" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="57">
         <f>D7/D9</f>
         <v>0.0688434303697876</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="57">
         <f>E7/E9</f>
         <v>0.0767910767910768</v>
       </c>
-      <c r="F13" s="58">
+      <c r="F13" s="57">
         <f>F7/F9</f>
         <v>0.0910015251652262</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25" t="s">
+      <c r="H13" s="23"/>
+      <c r="I13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="58">
+      <c r="J13" s="57">
         <f t="shared" ref="J13:L13" si="1">J5/J11</f>
         <v>0</v>
       </c>
-      <c r="K13" s="58">
+      <c r="K13" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L13" s="58">
+      <c r="L13" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="24"/>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="57">
         <f>D8/D9</f>
         <v>0.0189673092053501</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="57">
         <f>E8/E9</f>
         <v>0.0216794937794938</v>
       </c>
-      <c r="F14" s="58">
+      <c r="F14" s="57">
         <f>F8/F9</f>
         <v>0.0231380274529741</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="25" t="s">
+      <c r="H14" s="23"/>
+      <c r="I14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="58">
+      <c r="J14" s="57">
         <f t="shared" ref="J14:L14" si="2">J6/J11</f>
         <v>0.0333419488239855</v>
       </c>
-      <c r="K14" s="58">
+      <c r="K14" s="57">
         <f t="shared" si="2"/>
         <v>0.0354007363353158</v>
       </c>
-      <c r="L14" s="58">
+      <c r="L14" s="57">
         <f t="shared" si="2"/>
         <v>0.035096909376637</v>
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="12">
@@ -2336,507 +2333,507 @@
       <c r="F15" s="12">
         <v>2.14</v>
       </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25" t="s">
+      <c r="H15" s="23"/>
+      <c r="I15" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="58">
+      <c r="J15" s="57">
         <f t="shared" ref="J15:L15" si="3">J7/J11</f>
         <v>0</v>
       </c>
-      <c r="K15" s="58">
+      <c r="K15" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L15" s="58">
+      <c r="L15" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="24"/>
-      <c r="C16" s="23" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="22">
         <v>0.156951</v>
       </c>
-      <c r="E16" s="23">
-        <v>0</v>
-      </c>
-      <c r="F16" s="23">
-        <v>0</v>
-      </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25" t="s">
+      <c r="E16" s="22">
+        <v>0</v>
+      </c>
+      <c r="F16" s="22">
+        <v>0</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="58">
+      <c r="J16" s="57">
         <f t="shared" ref="J16:L16" si="4">J8/J11</f>
         <v>0.07960713362626</v>
       </c>
-      <c r="K16" s="58">
+      <c r="K16" s="57">
         <f t="shared" si="4"/>
         <v>0.103653355989805</v>
       </c>
-      <c r="L16" s="58">
+      <c r="L16" s="57">
         <f t="shared" si="4"/>
         <v>0.0945521215295966</v>
       </c>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="24"/>
-      <c r="C17" s="23" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="22">
         <v>23.9</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <v>24.44</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="22">
         <v>24.98</v>
       </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="25" t="s">
+      <c r="H17" s="23"/>
+      <c r="I17" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="58">
+      <c r="J17" s="57">
         <f t="shared" ref="J17:L17" si="5">J9/J11</f>
         <v>0.0307573016283277</v>
       </c>
-      <c r="K17" s="58">
+      <c r="K17" s="57">
         <f t="shared" si="5"/>
         <v>0.0337015009912206</v>
       </c>
-      <c r="L17" s="58">
+      <c r="L17" s="57">
         <f t="shared" si="5"/>
         <v>0.0282870612886328</v>
       </c>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="24"/>
-      <c r="C18" s="23" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="22">
         <v>1.69</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="22">
         <v>1.89</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="22">
         <v>2.03</v>
       </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25" t="s">
+      <c r="H18" s="23"/>
+      <c r="I18" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="58">
+      <c r="J18" s="57">
         <f t="shared" ref="J18:L18" si="6">J10/J11</f>
         <v>0</v>
       </c>
-      <c r="K18" s="58">
+      <c r="K18" s="57">
         <f t="shared" si="6"/>
         <v>0.512602662135372</v>
       </c>
-      <c r="L18" s="58">
+      <c r="L18" s="57">
         <f t="shared" si="6"/>
         <v>0.381089575694081</v>
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="24"/>
-      <c r="C19" s="23" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="22">
         <v>22.78</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="22">
         <v>21.7</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="22">
         <v>21.05</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="H19" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="23" t="s">
+      <c r="I19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="13">
         <v>17.93</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="13">
         <v>25.93</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L19" s="13">
         <v>30.93</v>
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="24"/>
-      <c r="C20" s="23" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="22">
         <v>37.91</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="22">
         <v>38.86</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="22">
         <v>39.89</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="23" t="s">
+      <c r="H20" s="23"/>
+      <c r="I20" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="13">
         <v>2.55</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="13">
         <v>2.2</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L20" s="13">
         <v>2.02</v>
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="24"/>
-      <c r="C21" s="23" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="23">
-        <v>0</v>
-      </c>
-      <c r="E21" s="23">
-        <v>0</v>
-      </c>
-      <c r="F21" s="23">
-        <v>0</v>
-      </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="23" t="s">
+      <c r="D21" s="22">
+        <v>0</v>
+      </c>
+      <c r="E21" s="22">
+        <v>0</v>
+      </c>
+      <c r="F21" s="22">
+        <v>0</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="22">
         <v>9.81</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="22">
         <v>10.25</v>
       </c>
-      <c r="L21" s="23">
+      <c r="L21" s="22">
         <v>10.67</v>
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="24"/>
-      <c r="C22" s="23" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="22">
         <v>46.87</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="22">
         <v>46.91</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="22">
         <v>47.68</v>
       </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="23" t="s">
+      <c r="H22" s="23"/>
+      <c r="I22" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="52">
+      <c r="J22" s="51">
         <v>0.445529</v>
       </c>
-      <c r="K22" s="52">
+      <c r="K22" s="51">
         <v>0.433483</v>
       </c>
-      <c r="L22" s="52">
+      <c r="L22" s="51">
         <v>0.358162</v>
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="24"/>
-      <c r="C23" s="23" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="22">
         <v>145.68</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <v>144.94</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="22">
         <v>148.8</v>
       </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="23" t="s">
+      <c r="H23" s="23"/>
+      <c r="I23" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="22">
         <v>8.6</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="22">
         <v>9.49</v>
       </c>
-      <c r="L23" s="23">
+      <c r="L23" s="22">
         <v>9.9</v>
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="24"/>
-      <c r="C24" s="25" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="58">
+      <c r="D24" s="57">
         <f>D15/D23</f>
         <v>0.0306150466776496</v>
       </c>
-      <c r="E24" s="58">
+      <c r="E24" s="57">
         <f>E15/E23</f>
         <v>0.0180764454256934</v>
       </c>
-      <c r="F24" s="58">
+      <c r="F24" s="57">
         <f>F15/F23</f>
         <v>0.0143817204301075</v>
       </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="23" t="s">
+      <c r="H24" s="23"/>
+      <c r="I24" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="22">
         <v>39.44</v>
       </c>
-      <c r="K24" s="23">
+      <c r="K24" s="22">
         <v>48.4</v>
       </c>
-      <c r="L24" s="23">
+      <c r="L24" s="22">
         <v>54.02</v>
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="24"/>
-      <c r="C25" s="25" t="s">
+      <c r="B25" s="23"/>
+      <c r="C25" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="58">
+      <c r="D25" s="57">
         <f>D16/D23</f>
         <v>0.00107736820428336</v>
       </c>
-      <c r="E25" s="58">
+      <c r="E25" s="57">
         <f>E16/E23</f>
         <v>0</v>
       </c>
-      <c r="F25" s="58">
+      <c r="F25" s="57">
         <f>F16/F23</f>
         <v>0</v>
       </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="25" t="s">
+      <c r="H25" s="23"/>
+      <c r="I25" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="58">
+      <c r="J25" s="57">
         <f>J4/J24</f>
         <v>0.0593306288032454</v>
       </c>
-      <c r="K25" s="58">
+      <c r="K25" s="57">
         <f>K4/K24</f>
         <v>0.0206611570247934</v>
       </c>
-      <c r="L25" s="58">
+      <c r="L25" s="57">
         <f>L4/L24</f>
         <v>0.155497963717142</v>
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="24"/>
-      <c r="C26" s="25" t="s">
+      <c r="B26" s="23"/>
+      <c r="C26" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="58">
+      <c r="D26" s="57">
         <f>D17/D23</f>
         <v>0.164058209774849</v>
       </c>
-      <c r="E26" s="58">
+      <c r="E26" s="57">
         <f>E17/E23</f>
         <v>0.168621498551125</v>
       </c>
-      <c r="F26" s="58">
+      <c r="F26" s="57">
         <f>F17/F23</f>
         <v>0.167876344086022</v>
       </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="25" t="s">
+      <c r="H26" s="23"/>
+      <c r="I26" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="J26" s="58">
+      <c r="J26" s="57">
         <f t="shared" ref="J26:L26" si="7">J19/J24</f>
         <v>0.454614604462475</v>
       </c>
-      <c r="K26" s="58">
+      <c r="K26" s="57">
         <f t="shared" si="7"/>
         <v>0.535743801652893</v>
       </c>
-      <c r="L26" s="58">
+      <c r="L26" s="57">
         <f t="shared" si="7"/>
         <v>0.572565716401333</v>
       </c>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="24"/>
-      <c r="C27" s="25" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="58">
+      <c r="D27" s="57">
         <f>D18/D23</f>
         <v>0.0116007688083471</v>
       </c>
-      <c r="E27" s="58">
+      <c r="E27" s="57">
         <f>E18/E23</f>
         <v>0.0130398785704429</v>
       </c>
-      <c r="F27" s="58">
+      <c r="F27" s="57">
         <f>F18/F23</f>
         <v>0.0136424731182796</v>
       </c>
-      <c r="H27" s="24"/>
-      <c r="I27" s="25" t="s">
+      <c r="H27" s="23"/>
+      <c r="I27" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="J27" s="58">
+      <c r="J27" s="57">
         <f t="shared" ref="J27:L27" si="8">J20/J24</f>
         <v>0.0646551724137931</v>
       </c>
-      <c r="K27" s="58">
+      <c r="K27" s="57">
         <f t="shared" si="8"/>
         <v>0.0454545454545455</v>
       </c>
-      <c r="L27" s="58">
+      <c r="L27" s="57">
         <f t="shared" si="8"/>
         <v>0.0373935579415031</v>
       </c>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="24"/>
-      <c r="C28" s="25" t="s">
+      <c r="B28" s="23"/>
+      <c r="C28" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="58">
+      <c r="D28" s="57">
         <f>D19/D23</f>
         <v>0.156370126304228</v>
       </c>
-      <c r="E28" s="58">
+      <c r="E28" s="57">
         <f>E19/E23</f>
         <v>0.149717124327308</v>
       </c>
-      <c r="F28" s="58">
+      <c r="F28" s="57">
         <f>F19/F23</f>
         <v>0.141465053763441</v>
       </c>
-      <c r="H28" s="24"/>
-      <c r="I28" s="25" t="s">
+      <c r="H28" s="23"/>
+      <c r="I28" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="J28" s="58">
+      <c r="J28" s="57">
         <f t="shared" ref="J28:L28" si="9">J21/J24</f>
         <v>0.248732251521298</v>
       </c>
-      <c r="K28" s="58">
+      <c r="K28" s="57">
         <f t="shared" si="9"/>
         <v>0.211776859504132</v>
       </c>
-      <c r="L28" s="58">
+      <c r="L28" s="57">
         <f t="shared" si="9"/>
         <v>0.197519437245465</v>
       </c>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="24"/>
-      <c r="C29" s="25" t="s">
+      <c r="B29" s="23"/>
+      <c r="C29" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="58">
+      <c r="D29" s="57">
         <f>D20/D23</f>
         <v>0.260227896760022</v>
       </c>
-      <c r="E29" s="58">
+      <c r="E29" s="57">
         <f>E20/E23</f>
         <v>0.268110942458949</v>
       </c>
-      <c r="F29" s="58">
+      <c r="F29" s="57">
         <f>F20/F23</f>
         <v>0.268077956989247</v>
       </c>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25" t="s">
+      <c r="H29" s="23"/>
+      <c r="I29" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="J29" s="58">
+      <c r="J29" s="57">
         <f t="shared" ref="J29:L29" si="10">J22/J24</f>
         <v>0.0112963742393509</v>
       </c>
-      <c r="K29" s="58">
+      <c r="K29" s="57">
         <f t="shared" si="10"/>
         <v>0.00895626033057851</v>
       </c>
-      <c r="L29" s="58">
+      <c r="L29" s="57">
         <f t="shared" si="10"/>
         <v>0.00663017400962606</v>
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="24"/>
-      <c r="C30" s="25" t="s">
+      <c r="B30" s="23"/>
+      <c r="C30" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="58">
+      <c r="D30" s="57">
         <f>D21/D23</f>
         <v>0</v>
       </c>
-      <c r="E30" s="58">
+      <c r="E30" s="57">
         <f>E21/E23</f>
         <v>0</v>
       </c>
-      <c r="F30" s="58">
+      <c r="F30" s="57">
         <f>F21/F23</f>
         <v>0</v>
       </c>
-      <c r="H30" s="24"/>
-      <c r="I30" s="25" t="s">
+      <c r="H30" s="23"/>
+      <c r="I30" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="J30" s="58">
+      <c r="J30" s="57">
         <f t="shared" ref="J30:L30" si="11">J23/J24</f>
         <v>0.218052738336714</v>
       </c>
-      <c r="K30" s="58">
+      <c r="K30" s="57">
         <f t="shared" si="11"/>
         <v>0.196074380165289</v>
       </c>
-      <c r="L30" s="58">
+      <c r="L30" s="57">
         <f t="shared" si="11"/>
         <v>0.18326545723806</v>
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="24"/>
-      <c r="C31" s="25" t="s">
+      <c r="B31" s="23"/>
+      <c r="C31" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="58">
+      <c r="D31" s="57">
         <f>D22/D23</f>
         <v>0.321732564524986</v>
       </c>
-      <c r="E31" s="58">
+      <c r="E31" s="57">
         <f>E22/E23</f>
         <v>0.323651165999724</v>
       </c>
-      <c r="F31" s="58">
+      <c r="F31" s="57">
         <f>F22/F23</f>
         <v>0.320430107526882</v>
       </c>
@@ -2878,277 +2875,277 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22">
         <v>2019</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="22">
         <v>2018</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="22">
         <v>2017</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23">
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22">
         <v>2019</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="22">
         <v>2018</v>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="22">
         <v>2017</v>
       </c>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="22">
         <v>17.77</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>10.32</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="22">
         <v>14.5</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="23">
-        <v>0</v>
-      </c>
-      <c r="K4" s="23">
-        <v>0</v>
-      </c>
-      <c r="L4" s="23">
+      <c r="J4" s="22">
+        <v>0</v>
+      </c>
+      <c r="K4" s="22">
+        <v>0</v>
+      </c>
+      <c r="L4" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="24"/>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="22">
         <v>23.9</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>24.44</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="22">
         <v>24.98</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="23" t="s">
+      <c r="H5" s="23"/>
+      <c r="I5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="22">
         <v>1.29</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="22">
         <v>1.25</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="22">
         <v>1.34</v>
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="24"/>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="23">
-        <v>0</v>
-      </c>
-      <c r="E6" s="23">
-        <v>0</v>
-      </c>
-      <c r="F6" s="23">
+      <c r="D6" s="22">
+        <v>0</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0</v>
+      </c>
+      <c r="F6" s="22">
         <v>0.000276</v>
       </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23" t="s">
+      <c r="H6" s="23"/>
+      <c r="I6" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="22">
         <v>2.57</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="22">
         <v>2.8</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="22">
         <v>2.23</v>
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="24"/>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="22">
         <v>1.89</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>2.32</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="22">
         <v>2</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23" t="s">
+      <c r="H7" s="23"/>
+      <c r="I7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="22">
         <v>3.08</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="22">
         <v>3.66</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="22">
         <v>3.61</v>
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="24"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="22">
         <v>1.75</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <v>1.79</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="22">
         <v>1.79</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23" t="s">
+      <c r="H8" s="23"/>
+      <c r="I8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="22">
         <v>1.19</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="22">
         <v>1.19</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="22">
         <v>1.08</v>
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="24"/>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <v>0.482149</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <v>0.505349</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="22">
         <v>0.455125</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23" t="s">
+      <c r="H9" s="23"/>
+      <c r="I9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="23">
-        <v>0</v>
-      </c>
-      <c r="K9" s="23">
-        <v>0</v>
-      </c>
-      <c r="L9" s="28">
+      <c r="J9" s="22">
+        <v>0</v>
+      </c>
+      <c r="K9" s="22">
+        <v>0</v>
+      </c>
+      <c r="L9" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="24"/>
-      <c r="C10" s="23" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="22">
         <v>37.91</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <v>38.86</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <v>39.89</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23" t="s">
+      <c r="H10" s="23"/>
+      <c r="I10" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="22">
         <v>9.81</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="22">
         <v>10.25</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="22">
         <v>10.67</v>
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="47" t="s">
         <v>63</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="13">
         <v>1.37</v>
       </c>
-      <c r="E11" s="15">
-        <v>0</v>
-      </c>
-      <c r="F11" s="15">
-        <v>0</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="52" t="s">
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
+      <c r="H11" s="23"/>
+      <c r="I11" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="52">
+      <c r="J11" s="51">
         <v>0.445529</v>
       </c>
-      <c r="K11" s="52">
+      <c r="K11" s="51">
         <v>0.433483</v>
       </c>
-      <c r="L11" s="52">
+      <c r="L11" s="51">
         <v>0.358162</v>
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="24"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="12" t="s">
         <v>26</v>
       </c>
@@ -3161,24 +3158,24 @@
       <c r="F12" s="12">
         <v>2.14</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="13">
         <v>0.031133</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="13">
         <v>0.041808</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="13">
         <v>0.056824</v>
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="24"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="12" t="s">
         <v>68</v>
       </c>
@@ -3191,22 +3188,22 @@
       <c r="F13" s="12">
         <v>0</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="15" t="s">
+      <c r="H13" s="23"/>
+      <c r="I13" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="13">
         <v>0.15368</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="13">
         <v>0.15113</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="13">
         <v>0.000846</v>
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="24"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="12" t="s">
         <v>70</v>
       </c>
@@ -3219,22 +3216,22 @@
       <c r="F14" s="12">
         <v>0.03003</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="15" t="s">
+      <c r="H14" s="23"/>
+      <c r="I14" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="J14" s="15">
-        <v>0</v>
-      </c>
-      <c r="K14" s="15">
-        <v>0</v>
-      </c>
-      <c r="L14" s="15">
+      <c r="J14" s="13">
+        <v>0</v>
+      </c>
+      <c r="K14" s="13">
+        <v>0</v>
+      </c>
+      <c r="L14" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="24"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="12" t="s">
         <v>72</v>
       </c>
@@ -3247,22 +3244,22 @@
       <c r="F15" s="12">
         <v>0.886906</v>
       </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="15" t="s">
+      <c r="H15" s="23"/>
+      <c r="I15" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="J15" s="15">
-        <v>0</v>
-      </c>
-      <c r="K15" s="15">
-        <v>0</v>
-      </c>
-      <c r="L15" s="15">
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="24"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="12" t="s">
         <v>74</v>
       </c>
@@ -3275,22 +3272,22 @@
       <c r="F16" s="12">
         <v>0</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="15" t="s">
+      <c r="H16" s="23"/>
+      <c r="I16" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="13">
         <v>2.55</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="13">
         <v>2.2</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="13">
         <v>2.02</v>
       </c>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="24"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="12" t="s">
         <v>76</v>
       </c>
@@ -3303,22 +3300,22 @@
       <c r="F17" s="12">
         <v>0</v>
       </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="15" t="s">
+      <c r="H17" s="23"/>
+      <c r="I17" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="13">
         <v>17.93</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="13">
         <v>25.93</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="13">
         <v>30.93</v>
       </c>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="24"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="12" t="s">
         <v>77</v>
       </c>
@@ -3331,22 +3328,22 @@
       <c r="F18" s="12">
         <v>7.23</v>
       </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="15" t="s">
+      <c r="H18" s="23"/>
+      <c r="I18" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="13">
         <v>2.34</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="13">
         <v>1</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="13">
         <v>8.4</v>
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="24"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="12" t="s">
         <v>78</v>
       </c>
@@ -3359,152 +3356,152 @@
       <c r="F19" s="12">
         <v>0</v>
       </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="15" t="s">
+      <c r="H19" s="23"/>
+      <c r="I19" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="13">
         <v>7.78</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="13">
         <v>7.52</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L19" s="13">
         <v>6.91</v>
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="49"/>
-      <c r="C20" s="15" t="s">
+      <c r="B20" s="48"/>
+      <c r="C20" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="13">
         <v>171.1</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="13">
         <v>168.24</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="13">
         <v>168.47</v>
       </c>
-      <c r="H20" s="49"/>
-      <c r="I20" s="15" t="s">
+      <c r="H20" s="48"/>
+      <c r="I20" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="13">
         <v>38.69</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="13">
         <v>35.31</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L20" s="13">
         <v>38.18</v>
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="51">
+      <c r="D21" s="50">
         <f>SUM(D4:D10)/D20</f>
         <v>0.489200169491525</v>
       </c>
-      <c r="E21" s="51">
+      <c r="E21" s="50">
         <f>SUM(E4:E10)/E20</f>
         <v>0.465022283642416</v>
       </c>
-      <c r="F21" s="51">
+      <c r="F21" s="50">
         <f>SUM(F4:F10)/F20</f>
         <v>0.496322199798184</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="I21" s="50" t="s">
+      <c r="I21" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="J21" s="53">
+      <c r="J21" s="52">
         <f>SUM(J4:J11)/J20</f>
         <v>0.47520105970535</v>
       </c>
-      <c r="K21" s="53">
+      <c r="K21" s="52">
         <f>SUM(K4:K11)/K20</f>
         <v>0.554615774568111</v>
       </c>
-      <c r="L21" s="53">
+      <c r="L21" s="52">
         <f>SUM(L4:L11)/L20</f>
         <v>0.505190204295443</v>
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="24"/>
-      <c r="C22" s="50" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="51">
+      <c r="D22" s="50">
         <f>SUM(D11:D19)/D20</f>
         <v>0.0791627352425482</v>
       </c>
-      <c r="E22" s="51">
+      <c r="E22" s="50">
         <f>SUM(E11:E19)/E20</f>
         <v>0.0607756062767475</v>
       </c>
-      <c r="F22" s="51">
+      <c r="F22" s="50">
         <f>SUM(F11:F19)/F20</f>
         <v>0.0610609366652817</v>
       </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="50" t="s">
+      <c r="H22" s="23"/>
+      <c r="I22" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="J22" s="53">
+      <c r="J22" s="52">
         <f>SUM(J12:J19)/J20</f>
         <v>0.795678805892996</v>
       </c>
-      <c r="K22" s="53">
+      <c r="K22" s="52">
         <f>SUM(K12:K19)/K20</f>
         <v>1.04341370716511</v>
       </c>
-      <c r="L22" s="53">
+      <c r="L22" s="52">
         <f>SUM(L12:L19)/L20</f>
         <v>1.26552304871661</v>
       </c>
     </row>
     <row r="23" spans="8:12">
-      <c r="H23" s="24"/>
-      <c r="I23" s="33" t="s">
+      <c r="H23" s="23"/>
+      <c r="I23" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="J23" s="54">
+      <c r="J23" s="53">
         <f>SUM(J4:J11)/D20</f>
         <v>0.10745487434249</v>
       </c>
-      <c r="K23" s="54">
+      <c r="K23" s="53">
         <f>SUM(K4:K11)/E20</f>
         <v>0.116402062529719</v>
       </c>
-      <c r="L23" s="54">
+      <c r="L23" s="53">
         <f>SUM(L4:L11)/F20</f>
         <v>0.114490188164065</v>
       </c>
     </row>
     <row r="24" spans="8:12">
-      <c r="H24" s="24"/>
-      <c r="I24" s="33" t="s">
+      <c r="H24" s="23"/>
+      <c r="I24" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="J24" s="54">
+      <c r="J24" s="53">
         <f>SUM(J14:J19)/D20</f>
         <v>0.178842781998831</v>
       </c>
-      <c r="K24" s="54">
+      <c r="K24" s="53">
         <f>SUM(K14:K19)/E20</f>
         <v>0.217843556823585</v>
       </c>
-      <c r="L24" s="54">
+      <c r="L24" s="53">
         <f>SUM(L14:L19)/F20</f>
         <v>0.286460497417938</v>
       </c>
@@ -3530,8 +3527,8 @@
   <sheetPr/>
   <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
@@ -3543,752 +3540,752 @@
     <col min="9" max="9" width="9.16393442622951" customWidth="1"/>
     <col min="10" max="10" width="9.45081967213115" customWidth="1"/>
     <col min="11" max="11" width="12.4344262295082" customWidth="1"/>
-    <col min="12" max="12" width="8.72131147540984" style="22"/>
+    <col min="12" max="12" width="8.72131147540984" style="21"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="23"/>
-      <c r="C2" s="23">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22">
         <v>2019</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="22">
         <v>2018</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="22">
         <v>2017</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="23">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="22">
         <v>2019</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="22">
         <v>2018</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="22">
         <v>2017</v>
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="B3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="22">
         <v>83.11</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="22">
         <v>85.39</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>84.17</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="24">
         <v>18.04</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="24">
         <v>19.23</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="24">
         <v>20.68</v>
       </c>
-      <c r="L4" s="44"/>
+      <c r="L4" s="43"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="22">
         <v>5.25</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="22">
         <v>4.72</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>4.51</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="22">
         <v>7.98</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="22">
         <v>6.47</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="22">
         <v>5.39</v>
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <v>0.557428</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <v>0.591205</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>0.5836642</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="23" t="s">
+      <c r="G6" s="23"/>
+      <c r="H6" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="22">
         <v>1.54</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="22">
         <v>0.38625</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="22">
         <v>0.037449</v>
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>54.02</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="22">
         <v>56.1</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>57.19</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="24">
         <v>-2.64</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="24">
         <v>-9.07</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="24">
         <v>-5.41</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <v>10.09</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="22">
         <v>10.28</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <v>9.3</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="22">
         <v>0.7965</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="22">
         <v>0.085</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <v>0.263926</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <v>0.299839</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <v>0.175955</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="23" t="s">
+      <c r="G9" s="23"/>
+      <c r="H9" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="22">
         <v>2.66</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="22">
         <v>1.1</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="22">
         <v>48.13</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <v>1.22</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="22">
         <v>1.72</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <v>2.23</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="23" t="s">
+      <c r="G10" s="23"/>
+      <c r="H10" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="22">
         <v>9.32</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="22">
         <v>12.84</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="27">
         <v>57.26</v>
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="22">
         <v>0.242955</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="22">
         <v>1.17</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <v>0.602604</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="23" t="s">
+      <c r="G11" s="23"/>
+      <c r="H11" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="22">
         <v>2.79</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="22">
         <v>2.73</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="22">
         <v>2.53</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="22">
         <v>0.01059</v>
       </c>
-      <c r="D12" s="23">
-        <v>0</v>
-      </c>
-      <c r="E12" s="23">
-        <v>0</v>
-      </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="23" t="s">
+      <c r="D12" s="22">
+        <v>0</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="22">
         <v>0.084</v>
       </c>
-      <c r="J12" s="23">
-        <v>0</v>
-      </c>
-      <c r="K12" s="23">
+      <c r="J12" s="22">
+        <v>0</v>
+      </c>
+      <c r="K12" s="22">
         <v>4.07</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="22">
         <v>0.356517</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="22">
         <v>1.56</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="22">
         <v>-0.031621</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25" t="s">
+      <c r="G13" s="23"/>
+      <c r="H13" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="24">
         <v>-7.98</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="24">
         <v>-14.39</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13" s="24">
         <v>-11.73</v>
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="22">
         <v>0.068154</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="22">
         <v>0.076107</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="22">
         <v>0.323271</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="26">
         <f>I4-I5-I6</f>
         <v>8.52</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="26">
         <f>J4-J5-J6</f>
         <v>12.37375</v>
       </c>
-      <c r="K14" s="27">
+      <c r="K14" s="26">
         <f>K4-K5-K6</f>
         <v>15.252551</v>
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="27">
         <v>1.02</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="22">
         <v>0.656533</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="22">
         <v>0.497104</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="22">
         <v>0.086088</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="22">
         <v>0.159284</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="22">
         <v>0.088284</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="I16" s="31">
+      <c r="I16" s="30">
         <f>SUM(I14:K14)/3</f>
         <v>12.048767</v>
       </c>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="22">
         <v>0.060195</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="22">
         <v>0.111224</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <v>0.433832</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="31" t="s">
+      <c r="G17" s="31"/>
+      <c r="H17" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="I17" s="45">
+      <c r="I17" s="44">
         <v>0.08</v>
       </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="22">
         <v>9.19</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="22">
         <v>8.92</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="22">
         <v>6.59</v>
       </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="31" t="s">
+      <c r="G18" s="31"/>
+      <c r="H18" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="I18" s="45">
+      <c r="I18" s="44">
         <v>0.03</v>
       </c>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="32">
         <f>C4-C5</f>
         <v>77.86</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="32">
         <f>D4-D5</f>
         <v>80.67</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="32">
         <f>E4-E5</f>
         <v>79.66</v>
       </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="31" t="s">
+      <c r="G19" s="31"/>
+      <c r="H19" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="I19" s="45">
+      <c r="I19" s="44">
         <v>0.1</v>
       </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="33">
         <f>C19/C4</f>
         <v>0.936830706292865</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="33">
         <f>D19/D4</f>
         <v>0.944724206581567</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="33">
         <f>E19/E4</f>
         <v>0.946417963645004</v>
       </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="31" t="s">
+      <c r="G20" s="31"/>
+      <c r="H20" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="I20" s="46">
+      <c r="I20" s="45">
         <v>9.88</v>
       </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="34">
         <f>C4-C5-C6-C7-C8-C9-C10</f>
         <v>11.708646</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="34">
         <f>D4-D5-D6-D7-D8-D9-D10</f>
         <v>11.678956</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E21" s="34">
         <f>E4-E5-E6-E7-E8-E9-E10</f>
         <v>10.1803808</v>
       </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="31" t="s">
+      <c r="G21" s="31"/>
+      <c r="H21" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="I21" s="31">
+      <c r="I21" s="30">
         <f>I16*(1+I19)/POWER(1+I17,1)</f>
         <v>12.2718923148148</v>
       </c>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="35">
         <f>C21/C4</f>
         <v>0.140881313921309</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="35">
         <f>D21/D4</f>
         <v>0.136771940508256</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="35">
         <f>E21/E4</f>
         <v>0.12095022929785</v>
       </c>
-      <c r="G22" s="32"/>
-      <c r="H22" s="31" t="s">
+      <c r="G22" s="31"/>
+      <c r="H22" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="I22" s="31">
+      <c r="I22" s="30">
         <f>I16*POWER(1+I19,2)/POWER(1+I17,2)</f>
         <v>12.499149579904</v>
       </c>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="37">
         <f>C21/I4</f>
         <v>0.649038026607539</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="37">
         <f>D21/J4</f>
         <v>0.607330005200208</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="37">
         <f>E21/K4</f>
         <v>0.492281470019342</v>
       </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="31" t="s">
+      <c r="G23" s="31"/>
+      <c r="H23" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="I23" s="31">
+      <c r="I23" s="30">
         <f>I16*POWER(1+I19,3)/POWER(1+I17,3)</f>
         <v>12.7306153128652</v>
       </c>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="39">
+      <c r="C24" s="38">
         <f>C7/C4</f>
         <v>0.649981951630369</v>
       </c>
-      <c r="D24" s="39">
+      <c r="D24" s="38">
         <f>D7/D4</f>
         <v>0.656985595502986</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="38">
         <f>E7/E4</f>
         <v>0.679458239277652</v>
       </c>
-      <c r="G24" s="32"/>
-      <c r="H24" s="31" t="s">
+      <c r="G24" s="31"/>
+      <c r="H24" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="I24" s="31">
+      <c r="I24" s="30">
         <f>(SUM(I21:I23)*(1+I18))/I17-I18</f>
         <v>482.803836547644</v>
       </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="C25" s="39">
+      <c r="C25" s="38">
         <f>C8/C4</f>
         <v>0.121405366381903</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="38">
         <f>D8/D4</f>
         <v>0.120388804309638</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="38">
         <f>E8/E4</f>
         <v>0.110490673636688</v>
       </c>
-      <c r="G25" s="32"/>
-      <c r="H25" s="31" t="s">
+      <c r="G25" s="31"/>
+      <c r="H25" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="I25" s="31">
+      <c r="I25" s="30">
         <f>SUM(I21:I24)</f>
         <v>520.305493755228</v>
       </c>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="39">
+      <c r="C26" s="38">
         <f>C16/C4</f>
         <v>0.00103583202983997</v>
       </c>
-      <c r="D26" s="39">
+      <c r="D26" s="38">
         <f>D16/D4</f>
         <v>0.00186537065230121</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E26" s="38">
         <f>E16/E4</f>
         <v>0.00104887727218724</v>
       </c>
-      <c r="G26" s="40"/>
-      <c r="H26" s="17" t="s">
+      <c r="G26" s="39"/>
+      <c r="H26" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="16">
         <f>I25/I20</f>
         <v>52.662499367938</v>
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="C27" s="39">
+      <c r="C27" s="38">
         <f>C18/C4</f>
         <v>0.110576344603537</v>
       </c>
-      <c r="D27" s="39">
+      <c r="D27" s="38">
         <f>D18/D4</f>
         <v>0.104461880782293</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="38">
         <f>E18/E4</f>
         <v>0.0782939289533088</v>
       </c>
     </row>
     <row r="28" spans="7:10">
-      <c r="G28" s="41" t="s">
+      <c r="G28" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="I28" s="47">
+      <c r="I28" s="46">
         <v>0.1</v>
       </c>
-      <c r="J28" s="23"/>
+      <c r="J28" s="22"/>
     </row>
     <row r="29" spans="7:10">
-      <c r="G29" s="42"/>
-      <c r="H29" s="15" t="s">
+      <c r="G29" s="41"/>
+      <c r="H29" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="I29" s="47">
+      <c r="I29" s="46">
         <v>0.04</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J29" s="13">
         <f>1/I29</f>
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="7:10">
-      <c r="G30" s="42"/>
-      <c r="H30" s="15" t="s">
+      <c r="G30" s="41"/>
+      <c r="H30" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="I30" s="47">
+      <c r="I30" s="46">
         <v>0.02</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J30" s="13">
         <f>1/I30</f>
         <v>50</v>
       </c>
     </row>
     <row r="31" spans="7:10">
-      <c r="G31" s="42"/>
-      <c r="H31" s="15" t="s">
+      <c r="G31" s="41"/>
+      <c r="H31" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I31" s="13">
         <f>(C18*POWER(1+I28,3))*J29</f>
         <v>305.79725</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J31" s="13">
         <f>I31/I20</f>
         <v>30.9511386639676</v>
       </c>
     </row>
     <row r="32" spans="7:10">
-      <c r="G32" s="42"/>
-      <c r="H32" s="15" t="s">
+      <c r="G32" s="41"/>
+      <c r="H32" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I32" s="13">
         <f>I31*0.7</f>
         <v>214.058075</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J32" s="13">
         <f>I32/I20</f>
         <v>21.6657970647773</v>
       </c>
     </row>
     <row r="33" spans="7:10">
-      <c r="G33" s="43"/>
-      <c r="H33" s="15" t="s">
+      <c r="G33" s="42"/>
+      <c r="H33" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I33" s="13">
         <f>(C18*POWER(1+I28,3))*J30</f>
         <v>611.5945</v>
       </c>
-      <c r="J33" s="15">
+      <c r="J33" s="13">
         <f>I33/I20</f>
         <v>61.9022773279352</v>
       </c>
@@ -4313,8 +4310,8 @@
   <sheetPr/>
   <dimension ref="B3:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
@@ -4604,232 +4601,228 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="10"/>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="13">
         <v>1.2901867163</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="13">
         <v>0.736342833</v>
       </c>
       <c r="F14" s="13">
         <v>0.597041</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="13">
         <v>1.2901867163</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="13">
         <v>1.4334530257</v>
       </c>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="10"/>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="13">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!D12</f>
         <v>4.46</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="13">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!E12</f>
         <v>2.62</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="13">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!F12</f>
         <v>2.14</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="13">
         <f>D15</f>
         <v>4.46</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="13">
         <v>134.3845945702</v>
       </c>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="10"/>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="13">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!D20</f>
         <v>171.1</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="13">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!E20</f>
         <v>168.24</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="13">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!F20</f>
         <v>168.47</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="13">
         <f>D16</f>
         <v>171.1</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="13">
         <v>139.6576402838</v>
       </c>
     </row>
     <row r="22" ht="16.05" spans="3:4">
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="16" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="24" ht="16.05" spans="2:8">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="19" t="s">
+      <c r="C24" s="15"/>
+      <c r="D24" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="E24"/>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="19" t="s">
+      <c r="G24" s="15"/>
+      <c r="H24" s="18" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="25" ht="16.05" spans="2:8">
-      <c r="B25" s="20"/>
-      <c r="C25" s="16" t="s">
+      <c r="B25" s="19"/>
+      <c r="C25" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="E25"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="16" t="s">
+      <c r="F25" s="19"/>
+      <c r="G25" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="H25" s="19" t="s">
+      <c r="H25" s="18" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="26" ht="16.05" spans="2:8">
-      <c r="B26" s="20"/>
-      <c r="C26" s="16" t="s">
+      <c r="B26" s="19"/>
+      <c r="C26" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="E26"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="16" t="s">
+      <c r="F26" s="19"/>
+      <c r="G26" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="H26" s="19" t="s">
+      <c r="H26" s="18" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="27" ht="16.05" spans="2:8">
-      <c r="B27" s="20"/>
-      <c r="C27" s="16" t="s">
+      <c r="B27" s="19"/>
+      <c r="C27" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="E27"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="16" t="s">
+      <c r="F27" s="19"/>
+      <c r="G27" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="18" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="28" ht="16.05" spans="2:8">
-      <c r="B28" s="20"/>
-      <c r="C28" s="16" t="s">
+      <c r="B28" s="19"/>
+      <c r="C28" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="16" t="s">
+      <c r="F28" s="19"/>
+      <c r="G28" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="H28" s="19" t="s">
+      <c r="H28" s="18" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="29" ht="16.05" spans="2:8">
-      <c r="B29" s="20"/>
-      <c r="C29" s="16" t="s">
+      <c r="B29" s="19"/>
+      <c r="C29" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="16" t="s">
+      <c r="F29" s="19"/>
+      <c r="G29" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="H29" s="19" t="s">
+      <c r="H29" s="18" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="30" ht="16.05" spans="2:8">
-      <c r="B30" s="20"/>
-      <c r="C30" s="16" t="s">
+      <c r="B30" s="19"/>
+      <c r="C30" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="16" t="s">
+      <c r="F30" s="20"/>
+      <c r="G30" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H30" s="19" t="s">
+      <c r="H30" s="18" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="31" ht="16.05" spans="2:4">
-      <c r="B31" s="20"/>
-      <c r="C31" s="16" t="s">
+      <c r="B31" s="19"/>
+      <c r="C31" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="18" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="32" ht="16.05" spans="2:4">
-      <c r="B32" s="20"/>
-      <c r="C32" s="16" t="s">
+      <c r="B32" s="19"/>
+      <c r="C32" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="18" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="33" ht="16.05" spans="2:4">
-      <c r="B33" s="21"/>
-      <c r="C33" s="16" t="s">
+      <c r="B33" s="20"/>
+      <c r="C33" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="18" t="s">
         <v>186</v>
       </c>
     </row>

--- a/funds/stocks/首旅酒店&财务报表同型分析.xlsx
+++ b/funds/stocks/首旅酒店&财务报表同型分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20603" windowHeight="8495" activeTab="2"/>
+    <workbookView windowWidth="20603" windowHeight="8495"/>
   </bookViews>
   <sheets>
     <sheet name="资产&amp;负债结构分析" sheetId="2" r:id="rId1"/>
@@ -641,13 +641,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0%"/>
-    <numFmt numFmtId="178" formatCode="\+0;\-0;0;@"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="\+0;\-0;0;@"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="28">
@@ -717,22 +717,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,31 +737,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -790,25 +766,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -822,31 +822,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,7 +832,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -899,19 +899,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,7 +929,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,7 +965,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,25 +1019,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,79 +1037,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,13 +1067,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,41 +1184,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1250,6 +1215,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1260,6 +1236,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1287,10 +1287,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1299,137 +1299,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1472,7 +1472,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1511,7 +1511,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1529,7 +1529,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1559,7 +1559,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1602,6 +1602,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="11" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1925,8 +1934,8 @@
   <sheetPr/>
   <dimension ref="B2:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
@@ -2003,13 +2012,13 @@
       <c r="I4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="51">
         <v>2.34</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="51">
         <v>1</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="51">
         <v>8.4</v>
       </c>
     </row>
@@ -2031,13 +2040,13 @@
       <c r="I5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="22">
-        <v>0</v>
-      </c>
-      <c r="K5" s="22">
-        <v>0</v>
-      </c>
-      <c r="L5" s="22">
+      <c r="J5" s="59">
+        <v>0</v>
+      </c>
+      <c r="K5" s="59">
+        <v>0</v>
+      </c>
+      <c r="L5" s="59">
         <v>0</v>
       </c>
     </row>
@@ -2059,13 +2068,13 @@
       <c r="I6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="59">
         <v>1.29</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="59">
         <v>1.25</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="59">
         <v>1.34</v>
       </c>
     </row>
@@ -2087,13 +2096,13 @@
       <c r="I7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="22">
-        <v>0</v>
-      </c>
-      <c r="K7" s="22">
-        <v>0</v>
-      </c>
-      <c r="L7" s="27">
+      <c r="J7" s="59">
+        <v>0</v>
+      </c>
+      <c r="K7" s="59">
+        <v>0</v>
+      </c>
+      <c r="L7" s="60">
         <v>0</v>
       </c>
     </row>
@@ -2115,13 +2124,13 @@
       <c r="I8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="59">
         <v>3.08</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="59">
         <v>3.66</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="59">
         <v>3.61</v>
       </c>
     </row>
@@ -2143,13 +2152,13 @@
       <c r="I9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="59">
         <v>1.19</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="59">
         <v>1.19</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="59">
         <v>1.08</v>
       </c>
     </row>
@@ -2174,13 +2183,13 @@
       <c r="I10" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="22">
-        <v>0</v>
-      </c>
-      <c r="K10" s="22">
+      <c r="J10" s="59">
+        <v>0</v>
+      </c>
+      <c r="K10" s="59">
         <v>18.1</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="59">
         <v>14.55</v>
       </c>
     </row>
@@ -2324,13 +2333,13 @@
       <c r="C15" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="58">
         <v>4.46</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="58">
         <v>2.62</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="58">
         <v>2.14</v>
       </c>
       <c r="H15" s="23"/>
@@ -2355,13 +2364,13 @@
       <c r="C16" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="59">
         <v>0.156951</v>
       </c>
-      <c r="E16" s="22">
-        <v>0</v>
-      </c>
-      <c r="F16" s="22">
+      <c r="E16" s="59">
+        <v>0</v>
+      </c>
+      <c r="F16" s="59">
         <v>0</v>
       </c>
       <c r="H16" s="23"/>
@@ -2386,13 +2395,13 @@
       <c r="C17" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="59">
         <v>23.9</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="59">
         <v>24.44</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="59">
         <v>24.98</v>
       </c>
       <c r="H17" s="23"/>
@@ -2417,13 +2426,13 @@
       <c r="C18" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="59">
         <v>1.69</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="59">
         <v>1.89</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="59">
         <v>2.03</v>
       </c>
       <c r="H18" s="23"/>
@@ -2448,13 +2457,13 @@
       <c r="C19" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="59">
         <v>22.78</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="59">
         <v>21.7</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="59">
         <v>21.05</v>
       </c>
       <c r="H19" s="23" t="s">
@@ -2463,13 +2472,13 @@
       <c r="I19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="51">
         <v>17.93</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="51">
         <v>25.93</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="51">
         <v>30.93</v>
       </c>
     </row>
@@ -2478,26 +2487,26 @@
       <c r="C20" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="59">
         <v>37.91</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="59">
         <v>38.86</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="59">
         <v>39.89</v>
       </c>
       <c r="H20" s="23"/>
       <c r="I20" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="51">
         <v>2.55</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="51">
         <v>2.2</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="51">
         <v>2.02</v>
       </c>
     </row>
@@ -2506,26 +2515,26 @@
       <c r="C21" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="22">
-        <v>0</v>
-      </c>
-      <c r="E21" s="22">
-        <v>0</v>
-      </c>
-      <c r="F21" s="22">
+      <c r="D21" s="59">
+        <v>0</v>
+      </c>
+      <c r="E21" s="59">
+        <v>0</v>
+      </c>
+      <c r="F21" s="59">
         <v>0</v>
       </c>
       <c r="H21" s="23"/>
       <c r="I21" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="59">
         <v>9.81</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="59">
         <v>10.25</v>
       </c>
-      <c r="L21" s="22">
+      <c r="L21" s="59">
         <v>10.67</v>
       </c>
     </row>
@@ -2534,13 +2543,13 @@
       <c r="C22" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="59">
         <v>46.87</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="59">
         <v>46.91</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="59">
         <v>47.68</v>
       </c>
       <c r="H22" s="23"/>
@@ -2562,26 +2571,26 @@
       <c r="C23" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="59">
         <v>145.68</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="59">
         <v>144.94</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="59">
         <v>148.8</v>
       </c>
       <c r="H23" s="23"/>
       <c r="I23" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="59">
         <v>8.6</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="59">
         <v>9.49</v>
       </c>
-      <c r="L23" s="22">
+      <c r="L23" s="59">
         <v>9.9</v>
       </c>
     </row>
@@ -2606,13 +2615,13 @@
       <c r="I24" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="59">
         <v>39.44</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K24" s="59">
         <v>48.4</v>
       </c>
-      <c r="L24" s="22">
+      <c r="L24" s="59">
         <v>54.02</v>
       </c>
     </row>
@@ -2858,7 +2867,7 @@
   <dimension ref="B2:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:F10"/>
+      <selection activeCell="D21" sqref="D21:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
@@ -3527,8 +3536,8 @@
   <sheetPr/>
   <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>

--- a/funds/stocks/首旅酒店&财务报表同型分析.xlsx
+++ b/funds/stocks/首旅酒店&财务报表同型分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20603" windowHeight="8495"/>
+    <workbookView windowWidth="20603" windowHeight="8495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="资产&amp;负债结构分析" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="209">
   <si>
     <t>项目</t>
   </si>
@@ -378,22 +378,34 @@
     <t>自由现金流均值(FCF)</t>
   </si>
   <si>
+    <t>EBIT</t>
+  </si>
+  <si>
     <t>营业外支出</t>
   </si>
   <si>
     <t>折现率(r)</t>
   </si>
   <si>
+    <t>经营杠杆</t>
+  </si>
+  <si>
     <t>持续经营净利润</t>
   </si>
   <si>
     <t>永续年金增长率(g)</t>
   </si>
   <si>
+    <t>财务杠杆</t>
+  </si>
+  <si>
     <t>毛利</t>
   </si>
   <si>
     <t>自由现金流增长率(G)</t>
+  </si>
+  <si>
+    <t>总杠杆</t>
   </si>
   <si>
     <t>毛利率</t>
@@ -640,15 +652,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="177" formatCode="\+0;\-0;0;@"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -717,6 +728,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -724,7 +742,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,78 +802,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -832,15 +819,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,10 +855,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -899,19 +910,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,31 +982,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,13 +1012,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,37 +1024,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,7 +1048,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,37 +1090,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1185,6 +1196,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1202,15 +1237,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1241,30 +1267,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1279,6 +1281,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1287,10 +1298,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1299,16 +1310,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1317,119 +1328,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1472,7 +1483,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1493,7 +1504,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1511,7 +1522,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1529,7 +1540,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1541,7 +1552,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1559,7 +1570,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1607,10 +1618,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1934,7 +1942,7 @@
   <sheetPr/>
   <dimension ref="B2:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -2040,13 +2048,13 @@
       <c r="I5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="59">
-        <v>0</v>
-      </c>
-      <c r="K5" s="59">
-        <v>0</v>
-      </c>
-      <c r="L5" s="59">
+      <c r="J5" s="51">
+        <v>0</v>
+      </c>
+      <c r="K5" s="51">
+        <v>0</v>
+      </c>
+      <c r="L5" s="51">
         <v>0</v>
       </c>
     </row>
@@ -2068,13 +2076,13 @@
       <c r="I6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="59">
+      <c r="J6" s="51">
         <v>1.29</v>
       </c>
-      <c r="K6" s="59">
+      <c r="K6" s="51">
         <v>1.25</v>
       </c>
-      <c r="L6" s="59">
+      <c r="L6" s="51">
         <v>1.34</v>
       </c>
     </row>
@@ -2096,13 +2104,13 @@
       <c r="I7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="59">
-        <v>0</v>
-      </c>
-      <c r="K7" s="59">
-        <v>0</v>
-      </c>
-      <c r="L7" s="60">
+      <c r="J7" s="51">
+        <v>0</v>
+      </c>
+      <c r="K7" s="51">
+        <v>0</v>
+      </c>
+      <c r="L7" s="59">
         <v>0</v>
       </c>
     </row>
@@ -2124,13 +2132,13 @@
       <c r="I8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="59">
+      <c r="J8" s="51">
         <v>3.08</v>
       </c>
-      <c r="K8" s="59">
+      <c r="K8" s="51">
         <v>3.66</v>
       </c>
-      <c r="L8" s="59">
+      <c r="L8" s="51">
         <v>3.61</v>
       </c>
     </row>
@@ -2152,13 +2160,13 @@
       <c r="I9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="59">
+      <c r="J9" s="51">
         <v>1.19</v>
       </c>
-      <c r="K9" s="59">
+      <c r="K9" s="51">
         <v>1.19</v>
       </c>
-      <c r="L9" s="59">
+      <c r="L9" s="51">
         <v>1.08</v>
       </c>
     </row>
@@ -2183,13 +2191,13 @@
       <c r="I10" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="59">
-        <v>0</v>
-      </c>
-      <c r="K10" s="59">
+      <c r="J10" s="51">
+        <v>0</v>
+      </c>
+      <c r="K10" s="51">
         <v>18.1</v>
       </c>
-      <c r="L10" s="59">
+      <c r="L10" s="51">
         <v>14.55</v>
       </c>
     </row>
@@ -2364,13 +2372,13 @@
       <c r="C16" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="59">
+      <c r="D16" s="51">
         <v>0.156951</v>
       </c>
-      <c r="E16" s="59">
-        <v>0</v>
-      </c>
-      <c r="F16" s="59">
+      <c r="E16" s="51">
+        <v>0</v>
+      </c>
+      <c r="F16" s="51">
         <v>0</v>
       </c>
       <c r="H16" s="23"/>
@@ -2395,13 +2403,13 @@
       <c r="C17" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="59">
+      <c r="D17" s="51">
         <v>23.9</v>
       </c>
-      <c r="E17" s="59">
+      <c r="E17" s="51">
         <v>24.44</v>
       </c>
-      <c r="F17" s="59">
+      <c r="F17" s="51">
         <v>24.98</v>
       </c>
       <c r="H17" s="23"/>
@@ -2426,13 +2434,13 @@
       <c r="C18" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="59">
+      <c r="D18" s="51">
         <v>1.69</v>
       </c>
-      <c r="E18" s="59">
+      <c r="E18" s="51">
         <v>1.89</v>
       </c>
-      <c r="F18" s="59">
+      <c r="F18" s="51">
         <v>2.03</v>
       </c>
       <c r="H18" s="23"/>
@@ -2457,13 +2465,13 @@
       <c r="C19" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="59">
+      <c r="D19" s="51">
         <v>22.78</v>
       </c>
-      <c r="E19" s="59">
+      <c r="E19" s="51">
         <v>21.7</v>
       </c>
-      <c r="F19" s="59">
+      <c r="F19" s="51">
         <v>21.05</v>
       </c>
       <c r="H19" s="23" t="s">
@@ -2487,13 +2495,13 @@
       <c r="C20" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="59">
+      <c r="D20" s="51">
         <v>37.91</v>
       </c>
-      <c r="E20" s="59">
+      <c r="E20" s="51">
         <v>38.86</v>
       </c>
-      <c r="F20" s="59">
+      <c r="F20" s="51">
         <v>39.89</v>
       </c>
       <c r="H20" s="23"/>
@@ -2515,26 +2523,26 @@
       <c r="C21" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="59">
-        <v>0</v>
-      </c>
-      <c r="E21" s="59">
-        <v>0</v>
-      </c>
-      <c r="F21" s="59">
+      <c r="D21" s="51">
+        <v>0</v>
+      </c>
+      <c r="E21" s="51">
+        <v>0</v>
+      </c>
+      <c r="F21" s="51">
         <v>0</v>
       </c>
       <c r="H21" s="23"/>
       <c r="I21" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="59">
+      <c r="J21" s="51">
         <v>9.81</v>
       </c>
-      <c r="K21" s="59">
+      <c r="K21" s="51">
         <v>10.25</v>
       </c>
-      <c r="L21" s="59">
+      <c r="L21" s="51">
         <v>10.67</v>
       </c>
     </row>
@@ -2543,13 +2551,13 @@
       <c r="C22" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="59">
+      <c r="D22" s="51">
         <v>46.87</v>
       </c>
-      <c r="E22" s="59">
+      <c r="E22" s="51">
         <v>46.91</v>
       </c>
-      <c r="F22" s="59">
+      <c r="F22" s="51">
         <v>47.68</v>
       </c>
       <c r="H22" s="23"/>
@@ -2571,26 +2579,26 @@
       <c r="C23" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="59">
+      <c r="D23" s="51">
         <v>145.68</v>
       </c>
-      <c r="E23" s="59">
+      <c r="E23" s="51">
         <v>144.94</v>
       </c>
-      <c r="F23" s="59">
+      <c r="F23" s="51">
         <v>148.8</v>
       </c>
       <c r="H23" s="23"/>
       <c r="I23" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J23" s="59">
+      <c r="J23" s="51">
         <v>8.6</v>
       </c>
-      <c r="K23" s="59">
+      <c r="K23" s="51">
         <v>9.49</v>
       </c>
-      <c r="L23" s="59">
+      <c r="L23" s="51">
         <v>9.9</v>
       </c>
     </row>
@@ -2615,13 +2623,13 @@
       <c r="I24" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="J24" s="59">
+      <c r="J24" s="51">
         <v>39.44</v>
       </c>
-      <c r="K24" s="59">
+      <c r="K24" s="51">
         <v>48.4</v>
       </c>
-      <c r="L24" s="59">
+      <c r="L24" s="51">
         <v>54.02</v>
       </c>
     </row>
@@ -3536,8 +3544,8 @@
   <sheetPr/>
   <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
@@ -3549,7 +3557,7 @@
     <col min="9" max="9" width="9.16393442622951" customWidth="1"/>
     <col min="10" max="10" width="9.45081967213115" customWidth="1"/>
     <col min="11" max="11" width="12.4344262295082" customWidth="1"/>
-    <col min="12" max="12" width="8.72131147540984" style="21"/>
+    <col min="12" max="12" width="13.983606557377" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
@@ -3590,7 +3598,7 @@
       <c r="J3" s="23"/>
       <c r="K3" s="23"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:11">
       <c r="B4" s="22" t="s">
         <v>90</v>
       </c>
@@ -3618,7 +3626,6 @@
       <c r="K4" s="24">
         <v>20.68</v>
       </c>
-      <c r="L4" s="43"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="22" t="s">
@@ -3918,7 +3925,7 @@
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:12">
       <c r="B16" s="22" t="s">
         <v>116</v>
       </c>
@@ -3942,11 +3949,17 @@
         <v>12.048767</v>
       </c>
       <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-    </row>
-    <row r="17" spans="2:11">
+      <c r="K16" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="L16" s="43">
+        <f>C18+C10+C6</f>
+        <v>10.967428</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
       <c r="B17" s="22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C17" s="22">
         <v>0.060195</v>
@@ -3959,17 +3972,23 @@
       </c>
       <c r="G17" s="31"/>
       <c r="H17" s="30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I17" s="44">
         <v>0.08</v>
       </c>
       <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-    </row>
-    <row r="18" spans="2:11">
+      <c r="K17" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L17" s="43">
+        <f>(L16+C7+C8+C9)/L16</f>
+        <v>6.86955537797923</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
       <c r="B18" s="22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C18" s="22">
         <v>9.19</v>
@@ -3982,17 +4001,23 @@
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="30" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I18" s="44">
         <v>0.03</v>
       </c>
       <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-    </row>
-    <row r="19" spans="2:11">
+      <c r="K18" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L18" s="43">
+        <f>L16/(L16-C10)</f>
+        <v>1.12516122201672</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
       <c r="B19" s="32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C19" s="32">
         <f>C4-C5</f>
@@ -4008,17 +4033,23 @@
       </c>
       <c r="G19" s="31"/>
       <c r="H19" s="30" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I19" s="44">
         <v>0.1</v>
       </c>
       <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-    </row>
-    <row r="20" spans="2:11">
+      <c r="K19" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="43">
+        <f>L17*L18</f>
+        <v>7.72935732379865</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
       <c r="B20" s="32" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C20" s="33">
         <f>C19/C4</f>
@@ -4034,17 +4065,16 @@
       </c>
       <c r="G20" s="31"/>
       <c r="H20" s="30" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I20" s="45">
         <v>9.88</v>
       </c>
       <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-    </row>
-    <row r="21" spans="2:11">
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21" s="34" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C21" s="34">
         <f>C4-C5-C6-C7-C8-C9-C10</f>
@@ -4060,18 +4090,17 @@
       </c>
       <c r="G21" s="31"/>
       <c r="H21" s="30" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I21" s="30">
         <f>I16*(1+I19)/POWER(1+I17,1)</f>
         <v>12.2718923148148</v>
       </c>
       <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="34" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C22" s="35">
         <f>C21/C4</f>
@@ -4087,7 +4116,7 @@
       </c>
       <c r="G22" s="31"/>
       <c r="H22" s="30" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I22" s="30">
         <f>I16*POWER(1+I19,2)/POWER(1+I17,2)</f>
@@ -4098,7 +4127,7 @@
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="36" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C23" s="37">
         <f>C21/I4</f>
@@ -4114,7 +4143,7 @@
       </c>
       <c r="G23" s="31"/>
       <c r="H23" s="30" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="I23" s="30">
         <f>I16*POWER(1+I19,3)/POWER(1+I17,3)</f>
@@ -4125,7 +4154,7 @@
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="24" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C24" s="38">
         <f>C7/C4</f>
@@ -4141,7 +4170,7 @@
       </c>
       <c r="G24" s="31"/>
       <c r="H24" s="30" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I24" s="30">
         <f>(SUM(I21:I23)*(1+I18))/I17-I18</f>
@@ -4152,7 +4181,7 @@
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="24" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C25" s="38">
         <f>C8/C4</f>
@@ -4168,7 +4197,7 @@
       </c>
       <c r="G25" s="31"/>
       <c r="H25" s="30" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I25" s="30">
         <f>SUM(I21:I24)</f>
@@ -4179,7 +4208,7 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="24" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C26" s="38">
         <f>C16/C4</f>
@@ -4195,7 +4224,7 @@
       </c>
       <c r="G26" s="39"/>
       <c r="H26" s="16" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I26" s="16">
         <f>I25/I20</f>
@@ -4204,7 +4233,7 @@
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="24" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C27" s="38">
         <f>C18/C4</f>
@@ -4221,10 +4250,10 @@
     </row>
     <row r="28" spans="7:10">
       <c r="G28" s="40" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I28" s="46">
         <v>0.1</v>
@@ -4234,7 +4263,7 @@
     <row r="29" spans="7:10">
       <c r="G29" s="41"/>
       <c r="H29" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I29" s="46">
         <v>0.04</v>
@@ -4247,7 +4276,7 @@
     <row r="30" spans="7:10">
       <c r="G30" s="41"/>
       <c r="H30" s="13" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I30" s="46">
         <v>0.02</v>
@@ -4260,7 +4289,7 @@
     <row r="31" spans="7:10">
       <c r="G31" s="41"/>
       <c r="H31" s="13" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I31" s="13">
         <f>(C18*POWER(1+I28,3))*J29</f>
@@ -4274,7 +4303,7 @@
     <row r="32" spans="7:10">
       <c r="G32" s="41"/>
       <c r="H32" s="13" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I32" s="13">
         <f>I31*0.7</f>
@@ -4288,7 +4317,7 @@
     <row r="33" spans="7:10">
       <c r="G33" s="42"/>
       <c r="H33" s="13" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I33" s="13">
         <f>(C18*POWER(1+I28,3))*J30</f>
@@ -4351,15 +4380,15 @@
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="9" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="10" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>0</v>
@@ -4516,13 +4545,13 @@
     <row r="10" spans="2:10">
       <c r="B10" s="10"/>
       <c r="C10" s="12" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="H10" s="12" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -4530,7 +4559,7 @@
     <row r="11" spans="2:10">
       <c r="B11" s="10"/>
       <c r="C11" s="12" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D11" s="12">
         <v>12.74</v>
@@ -4542,7 +4571,7 @@
         <v>10.36</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="I11" s="12">
         <f>D11</f>
@@ -4555,7 +4584,7 @@
     <row r="12" spans="2:10">
       <c r="B12" s="10"/>
       <c r="C12" s="12" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D12" s="12">
         <f>'利润&amp;现金流结构分析'!C21</f>
@@ -4570,7 +4599,7 @@
         <v>10.1803808</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I12" s="12">
         <f>D12</f>
@@ -4611,7 +4640,7 @@
     <row r="14" spans="2:10">
       <c r="B14" s="10"/>
       <c r="C14" s="13" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D14" s="13">
         <v>1.2901867163</v>
@@ -4623,7 +4652,7 @@
         <v>0.597041</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I14" s="13">
         <v>1.2901867163</v>
@@ -4663,7 +4692,7 @@
     <row r="16" spans="2:10">
       <c r="B16" s="10"/>
       <c r="C16" s="13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D16" s="13">
         <f>'(经营性&amp;金融性)资产&amp;负债结构分析'!D20</f>
@@ -4678,7 +4707,7 @@
         <v>168.47</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I16" s="13">
         <f>D16</f>
@@ -4690,149 +4719,149 @@
     </row>
     <row r="22" ht="16.05" spans="3:4">
       <c r="C22" s="15" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" ht="16.05" spans="2:8">
       <c r="B24" s="17" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="18" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="18" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" ht="16.05" spans="2:8">
       <c r="B25" s="19"/>
       <c r="C25" s="15" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="15" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" ht="16.05" spans="2:8">
       <c r="B26" s="19"/>
       <c r="C26" s="15" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="15" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" ht="16.05" spans="2:8">
       <c r="B27" s="19"/>
       <c r="C27" s="15" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="15" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" ht="16.05" spans="2:8">
       <c r="B28" s="19"/>
       <c r="C28" s="15" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="15" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" ht="16.05" spans="2:8">
       <c r="B29" s="19"/>
       <c r="C29" s="15" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="15" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" ht="16.05" spans="2:8">
       <c r="B30" s="19"/>
       <c r="C30" s="15" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="15" t="s">
         <v>41</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" ht="16.05" spans="2:4">
       <c r="B31" s="19"/>
       <c r="C31" s="15" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" ht="16.05" spans="2:4">
       <c r="B32" s="19"/>
       <c r="C32" s="15" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" ht="16.05" spans="2:4">
       <c r="B33" s="20"/>
       <c r="C33" s="15" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -4867,29 +4896,29 @@
   <sheetData>
     <row r="2" ht="18.25" spans="2:8">
       <c r="B2" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" ht="18.25" spans="2:8">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>61</v>
@@ -4897,10 +4926,10 @@
       <c r="E3" s="4"/>
       <c r="F3" s="1"/>
       <c r="G3" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" ht="18.25" spans="2:8">
@@ -4912,34 +4941,34 @@
       <c r="E4" s="4"/>
       <c r="F4" s="1"/>
       <c r="G4" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" ht="18.25" spans="2:8">
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="1"/>
       <c r="G5" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" ht="18.25" spans="2:8">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4948,10 +4977,10 @@
     </row>
     <row r="7" ht="18.25" spans="7:8">
       <c r="G7" s="6" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/funds/stocks/首旅酒店&财务报表同型分析.xlsx
+++ b/funds/stocks/首旅酒店&财务报表同型分析.xlsx
@@ -653,9 +653,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
@@ -741,42 +741,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -810,39 +779,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -856,6 +802,37 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -863,11 +840,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -910,30 +910,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -946,37 +922,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,7 +964,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,7 +976,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,79 +1084,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,35 +1193,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1252,6 +1234,48 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1266,30 +1290,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1301,7 +1301,7 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1310,133 +1310,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3544,8 +3544,8 @@
   <sheetPr/>
   <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16:L19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A32" sqref="$A32:$XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
@@ -4068,7 +4068,7 @@
         <v>130</v>
       </c>
       <c r="I20" s="45">
-        <v>9.88</v>
+        <v>11.88</v>
       </c>
       <c r="J20" s="28"/>
     </row>
@@ -4228,7 +4228,7 @@
       </c>
       <c r="I26" s="16">
         <f>I25/I20</f>
-        <v>52.662499367938</v>
+        <v>43.796758733605</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="J31" s="13">
         <f>I31/I20</f>
-        <v>30.9511386639676</v>
+        <v>25.7405092592593</v>
       </c>
     </row>
     <row r="32" spans="7:10">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="J32" s="13">
         <f>I32/I20</f>
-        <v>21.6657970647773</v>
+        <v>18.0183564814815</v>
       </c>
     </row>
     <row r="33" spans="7:10">
@@ -4325,7 +4325,7 @@
       </c>
       <c r="J33" s="13">
         <f>I33/I20</f>
-        <v>61.9022773279352</v>
+        <v>51.4810185185185</v>
       </c>
     </row>
   </sheetData>
